--- a/grupos/5ARHM - Estadisticos 20211.xlsx
+++ b/grupos/5ARHM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="112">
   <si>
     <t>Materia</t>
   </si>
@@ -152,19 +152,19 @@
     <t>Por_Blancos</t>
   </si>
   <si>
+    <t>González Sánchez Rene Aurelio</t>
+  </si>
+  <si>
+    <t>Ortega Valle Manuel</t>
+  </si>
+  <si>
+    <t>Martínez López Miguel Ángel</t>
+  </si>
+  <si>
     <t>Jiménez Nieto Enrique</t>
   </si>
   <si>
     <t>Duran Amezcua María Angélica</t>
-  </si>
-  <si>
-    <t>González Sánchez Rene Aurelio</t>
-  </si>
-  <si>
-    <t>Ortega Valle Manuel</t>
-  </si>
-  <si>
-    <t>Martínez López Miguel Ángel</t>
   </si>
   <si>
     <t>NC</t>
@@ -851,7 +851,7 @@
         <v>-1</v>
       </c>
       <c r="E4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>7</v>
@@ -905,7 +905,7 @@
         <v>-1</v>
       </c>
       <c r="W4">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="X4">
         <v>7</v>
@@ -919,7 +919,7 @@
         <v>13</v>
       </c>
       <c r="B5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>8</v>
@@ -928,7 +928,7 @@
         <v>-1</v>
       </c>
       <c r="E5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -973,7 +973,7 @@
         <v>-1</v>
       </c>
       <c r="T5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U5">
         <v>8</v>
@@ -982,7 +982,7 @@
         <v>-1</v>
       </c>
       <c r="W5">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X5">
         <v>10</v>
@@ -996,7 +996,7 @@
         <v>14</v>
       </c>
       <c r="B6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>8</v>
@@ -1005,7 +1005,7 @@
         <v>-1</v>
       </c>
       <c r="E6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>10</v>
@@ -1050,7 +1050,7 @@
         <v>-1</v>
       </c>
       <c r="T6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U6">
         <v>8</v>
@@ -1059,7 +1059,7 @@
         <v>-1</v>
       </c>
       <c r="W6">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X6">
         <v>10</v>
@@ -1073,7 +1073,7 @@
         <v>15</v>
       </c>
       <c r="B7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>8</v>
@@ -1082,7 +1082,7 @@
         <v>-1</v>
       </c>
       <c r="E7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>9</v>
@@ -1127,7 +1127,7 @@
         <v>-1</v>
       </c>
       <c r="T7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U7">
         <v>8</v>
@@ -1136,7 +1136,7 @@
         <v>-1</v>
       </c>
       <c r="W7">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X7">
         <v>9</v>
@@ -1150,7 +1150,7 @@
         <v>16</v>
       </c>
       <c r="B8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>8</v>
@@ -1159,7 +1159,7 @@
         <v>-1</v>
       </c>
       <c r="E8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>9</v>
@@ -1204,7 +1204,7 @@
         <v>-1</v>
       </c>
       <c r="T8">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U8">
         <v>8</v>
@@ -1213,7 +1213,7 @@
         <v>-1</v>
       </c>
       <c r="W8">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X8">
         <v>9</v>
@@ -1227,7 +1227,7 @@
         <v>17</v>
       </c>
       <c r="B9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
@@ -1236,7 +1236,7 @@
         <v>-1</v>
       </c>
       <c r="E9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -1281,7 +1281,7 @@
         <v>-1</v>
       </c>
       <c r="T9">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U9">
         <v>8</v>
@@ -1290,7 +1290,7 @@
         <v>-1</v>
       </c>
       <c r="W9">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X9">
         <v>5</v>
@@ -1304,7 +1304,7 @@
         <v>18</v>
       </c>
       <c r="B10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>-1</v>
@@ -1313,7 +1313,7 @@
         <v>-1</v>
       </c>
       <c r="E10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>9</v>
@@ -1358,7 +1358,7 @@
         <v>-1</v>
       </c>
       <c r="T10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U10">
         <v>-1</v>
@@ -1367,7 +1367,7 @@
         <v>-1</v>
       </c>
       <c r="W10">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X10">
         <v>9</v>
@@ -1381,7 +1381,7 @@
         <v>19</v>
       </c>
       <c r="B11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>8</v>
@@ -1390,7 +1390,7 @@
         <v>-1</v>
       </c>
       <c r="E11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -1435,7 +1435,7 @@
         <v>-1</v>
       </c>
       <c r="T11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U11">
         <v>8</v>
@@ -1444,7 +1444,7 @@
         <v>-1</v>
       </c>
       <c r="W11">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X11">
         <v>10</v>
@@ -1458,7 +1458,7 @@
         <v>20</v>
       </c>
       <c r="B12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>8</v>
@@ -1467,7 +1467,7 @@
         <v>-1</v>
       </c>
       <c r="E12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>8</v>
@@ -1512,7 +1512,7 @@
         <v>-1</v>
       </c>
       <c r="T12">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U12">
         <v>8</v>
@@ -1521,7 +1521,7 @@
         <v>-1</v>
       </c>
       <c r="W12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X12">
         <v>8</v>
@@ -1535,7 +1535,7 @@
         <v>21</v>
       </c>
       <c r="B13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>6</v>
@@ -1544,7 +1544,7 @@
         <v>-1</v>
       </c>
       <c r="E13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>6</v>
@@ -1589,7 +1589,7 @@
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U13">
         <v>6</v>
@@ -1598,7 +1598,7 @@
         <v>-1</v>
       </c>
       <c r="W13">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X13">
         <v>6</v>
@@ -1612,7 +1612,7 @@
         <v>22</v>
       </c>
       <c r="B14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C14">
         <v>7</v>
@@ -1621,7 +1621,7 @@
         <v>-1</v>
       </c>
       <c r="E14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -1666,7 +1666,7 @@
         <v>-1</v>
       </c>
       <c r="T14">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U14">
         <v>7</v>
@@ -1675,7 +1675,7 @@
         <v>-1</v>
       </c>
       <c r="W14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X14">
         <v>10</v>
@@ -1689,7 +1689,7 @@
         <v>23</v>
       </c>
       <c r="B15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>7</v>
@@ -1698,7 +1698,7 @@
         <v>-1</v>
       </c>
       <c r="E15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>6</v>
@@ -1743,7 +1743,7 @@
         <v>-1</v>
       </c>
       <c r="T15">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U15">
         <v>7</v>
@@ -1752,7 +1752,7 @@
         <v>-1</v>
       </c>
       <c r="W15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X15">
         <v>6</v>
@@ -1766,7 +1766,7 @@
         <v>24</v>
       </c>
       <c r="B16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C16">
         <v>8</v>
@@ -1775,7 +1775,7 @@
         <v>-1</v>
       </c>
       <c r="E16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1820,7 +1820,7 @@
         <v>-1</v>
       </c>
       <c r="T16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U16">
         <v>8</v>
@@ -1829,7 +1829,7 @@
         <v>-1</v>
       </c>
       <c r="W16">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X16">
         <v>10</v>
@@ -1843,7 +1843,7 @@
         <v>25</v>
       </c>
       <c r="B17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>8</v>
@@ -1852,7 +1852,7 @@
         <v>-1</v>
       </c>
       <c r="E17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -1897,7 +1897,7 @@
         <v>-1</v>
       </c>
       <c r="T17">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U17">
         <v>8</v>
@@ -1906,7 +1906,7 @@
         <v>-1</v>
       </c>
       <c r="W17">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X17">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>26</v>
       </c>
       <c r="B18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C18">
         <v>8</v>
@@ -1929,7 +1929,7 @@
         <v>-1</v>
       </c>
       <c r="E18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -1974,7 +1974,7 @@
         <v>-1</v>
       </c>
       <c r="T18">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U18">
         <v>8</v>
@@ -1983,7 +1983,7 @@
         <v>-1</v>
       </c>
       <c r="W18">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X18">
         <v>10</v>
@@ -1997,7 +1997,7 @@
         <v>27</v>
       </c>
       <c r="B19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>-1</v>
@@ -2051,7 +2051,7 @@
         <v>-1</v>
       </c>
       <c r="T19">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="U19">
         <v>-1</v>
@@ -2074,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="B20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -2083,7 +2083,7 @@
         <v>-1</v>
       </c>
       <c r="E20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F20">
         <v>9</v>
@@ -2128,7 +2128,7 @@
         <v>-1</v>
       </c>
       <c r="T20">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="U20">
         <v>-1</v>
@@ -2137,7 +2137,7 @@
         <v>-1</v>
       </c>
       <c r="W20">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X20">
         <v>9</v>
@@ -2151,7 +2151,7 @@
         <v>29</v>
       </c>
       <c r="B21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -2160,7 +2160,7 @@
         <v>-1</v>
       </c>
       <c r="E21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -2205,7 +2205,7 @@
         <v>-1</v>
       </c>
       <c r="T21">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U21">
         <v>-1</v>
@@ -2214,7 +2214,7 @@
         <v>-1</v>
       </c>
       <c r="W21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X21">
         <v>10</v>
@@ -2228,7 +2228,7 @@
         <v>30</v>
       </c>
       <c r="B22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -2237,7 +2237,7 @@
         <v>-1</v>
       </c>
       <c r="E22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -2282,7 +2282,7 @@
         <v>-1</v>
       </c>
       <c r="T22">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U22">
         <v>7</v>
@@ -2291,7 +2291,7 @@
         <v>-1</v>
       </c>
       <c r="W22">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X22">
         <v>10</v>
@@ -2305,7 +2305,7 @@
         <v>31</v>
       </c>
       <c r="B23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>8</v>
@@ -2314,7 +2314,7 @@
         <v>-1</v>
       </c>
       <c r="E23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -2359,7 +2359,7 @@
         <v>-1</v>
       </c>
       <c r="T23">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="U23">
         <v>8</v>
@@ -2368,7 +2368,7 @@
         <v>-1</v>
       </c>
       <c r="W23">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="X23">
         <v>10</v>
@@ -2459,7 +2459,7 @@
         <v>33</v>
       </c>
       <c r="B25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="C25">
         <v>6</v>
@@ -2468,7 +2468,7 @@
         <v>-1</v>
       </c>
       <c r="E25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F25">
         <v>9</v>
@@ -2513,7 +2513,7 @@
         <v>-1</v>
       </c>
       <c r="T25">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="U25">
         <v>6</v>
@@ -2522,7 +2522,7 @@
         <v>-1</v>
       </c>
       <c r="W25">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X25">
         <v>9</v>
@@ -2536,7 +2536,7 @@
         <v>34</v>
       </c>
       <c r="B26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>6</v>
@@ -2545,7 +2545,7 @@
         <v>-1</v>
       </c>
       <c r="E26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="F26">
         <v>9</v>
@@ -2590,7 +2590,7 @@
         <v>-1</v>
       </c>
       <c r="T26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="U26">
         <v>6</v>
@@ -2599,7 +2599,7 @@
         <v>-1</v>
       </c>
       <c r="W26">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="X26">
         <v>9</v>
@@ -2664,7 +2664,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>45</v>
@@ -2702,27 +2702,30 @@
         <v>23</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>78.26000000000001</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
+      <c r="H3">
+        <v>7.4</v>
+      </c>
       <c r="I3">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J3">
-        <v>100</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
@@ -2731,27 +2734,30 @@
         <v>23</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0</v>
+        <v>86.95999999999999</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="H4">
+        <v>8.699999999999999</v>
       </c>
       <c r="I4">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="J4">
-        <v>100</v>
+        <v>4.35</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>47</v>
@@ -2760,30 +2766,30 @@
         <v>23</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>78.26000000000001</v>
+        <v>91.3</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.4</v>
+        <v>9.5</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J5">
-        <v>21.74</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>48</v>
@@ -2792,25 +2798,25 @@
         <v>23</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>91.3</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>8.5</v>
+      </c>
+      <c r="I6">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>86.95999999999999</v>
-      </c>
-      <c r="G6">
+      <c r="J6">
         <v>8.699999999999999</v>
-      </c>
-      <c r="H6">
-        <v>8.699999999999999</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>4.35</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2818,7 +2824,7 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -2899,7 +2905,7 @@
         <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2919,7 +2925,7 @@
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2939,7 +2945,7 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2959,7 +2965,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2979,7 +2985,7 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2999,7 +3005,7 @@
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3019,7 +3025,7 @@
         <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3039,7 +3045,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3059,7 +3065,7 @@
         <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3079,7 +3085,7 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3099,7 +3105,7 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -3119,7 +3125,7 @@
         <v>9</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -3139,7 +3145,7 @@
         <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -3159,7 +3165,7 @@
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -3179,7 +3185,7 @@
         <v>6</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3199,7 +3205,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -3219,7 +3225,7 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -3239,7 +3245,7 @@
         <v>9</v>
       </c>
       <c r="F19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -3259,7 +3265,7 @@
         <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3279,7 +3285,7 @@
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -3299,7 +3305,7 @@
         <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -3319,7 +3325,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -3339,7 +3345,7 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -3359,7 +3365,7 @@
         <v>9</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3379,7 +3385,7 @@
         <v>8</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3399,7 +3405,7 @@
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3419,7 +3425,7 @@
         <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -3439,7 +3445,7 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3459,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3479,7 +3485,7 @@
         <v>9</v>
       </c>
       <c r="F31" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3499,7 +3505,7 @@
         <v>8</v>
       </c>
       <c r="F32" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3519,7 +3525,7 @@
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3539,7 +3545,7 @@
         <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3559,7 +3565,7 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3579,7 +3585,7 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3599,7 +3605,7 @@
         <v>9</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3619,7 +3625,7 @@
         <v>8</v>
       </c>
       <c r="F38" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3639,7 +3645,7 @@
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3659,7 +3665,7 @@
         <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3679,7 +3685,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3699,7 +3705,7 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3719,7 +3725,7 @@
         <v>9</v>
       </c>
       <c r="F43" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -3739,7 +3745,7 @@
         <v>8</v>
       </c>
       <c r="F44" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3759,7 +3765,7 @@
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3779,7 +3785,7 @@
         <v>6</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3799,7 +3805,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3819,7 +3825,7 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3839,7 +3845,7 @@
         <v>9</v>
       </c>
       <c r="F49" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3859,7 +3865,7 @@
         <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -3879,7 +3885,7 @@
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3899,7 +3905,7 @@
         <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -3919,7 +3925,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3939,7 +3945,7 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3959,7 +3965,7 @@
         <v>9</v>
       </c>
       <c r="F55" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3979,7 +3985,7 @@
         <v>8</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3999,7 +4005,7 @@
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -4019,7 +4025,7 @@
         <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -4039,7 +4045,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -4059,7 +4065,7 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -4079,7 +4085,7 @@
         <v>9</v>
       </c>
       <c r="F61" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -4099,7 +4105,7 @@
         <v>8</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -4119,7 +4125,7 @@
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -4139,7 +4145,7 @@
         <v>6</v>
       </c>
       <c r="F64" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -4159,7 +4165,7 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -4179,7 +4185,7 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -4199,7 +4205,7 @@
         <v>9</v>
       </c>
       <c r="F67" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -4219,7 +4225,7 @@
         <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -4239,7 +4245,7 @@
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -4259,7 +4265,7 @@
         <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -4279,7 +4285,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -4299,7 +4305,7 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -4319,7 +4325,7 @@
         <v>9</v>
       </c>
       <c r="F73" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -4339,7 +4345,7 @@
         <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -4359,7 +4365,7 @@
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4379,7 +4385,7 @@
         <v>6</v>
       </c>
       <c r="F76" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4399,7 +4405,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4419,7 +4425,7 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4439,7 +4445,7 @@
         <v>9</v>
       </c>
       <c r="F79" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4459,7 +4465,7 @@
         <v>8</v>
       </c>
       <c r="F80" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4479,7 +4485,7 @@
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4499,7 +4505,7 @@
         <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4519,7 +4525,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4539,7 +4545,7 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4559,7 +4565,7 @@
         <v>9</v>
       </c>
       <c r="F85" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4579,7 +4585,7 @@
         <v>8</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4599,7 +4605,7 @@
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4619,7 +4625,7 @@
         <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4639,7 +4645,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4659,7 +4665,7 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4679,7 +4685,7 @@
         <v>9</v>
       </c>
       <c r="F91" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4699,7 +4705,7 @@
         <v>8</v>
       </c>
       <c r="F92" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4719,7 +4725,7 @@
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4739,7 +4745,7 @@
         <v>6</v>
       </c>
       <c r="F94" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -4759,7 +4765,7 @@
         <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4779,7 +4785,7 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4799,7 +4805,7 @@
         <v>9</v>
       </c>
       <c r="F97" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4819,7 +4825,7 @@
         <v>8</v>
       </c>
       <c r="F98" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4839,7 +4845,7 @@
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4859,7 +4865,7 @@
         <v>6</v>
       </c>
       <c r="F100" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4879,7 +4885,7 @@
         <v>7</v>
       </c>
       <c r="F101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4899,7 +4905,7 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4919,7 +4925,7 @@
         <v>9</v>
       </c>
       <c r="F103" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4939,7 +4945,7 @@
         <v>8</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4959,7 +4965,7 @@
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4979,7 +4985,7 @@
         <v>6</v>
       </c>
       <c r="F106" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4999,7 +5005,7 @@
         <v>7</v>
       </c>
       <c r="F107" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -5019,7 +5025,7 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -5039,7 +5045,7 @@
         <v>9</v>
       </c>
       <c r="F109" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -5059,7 +5065,7 @@
         <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -5079,7 +5085,7 @@
         <v>5</v>
       </c>
       <c r="F111" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -5099,7 +5105,7 @@
         <v>6</v>
       </c>
       <c r="F112" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -5119,7 +5125,7 @@
         <v>7</v>
       </c>
       <c r="F113" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -5139,7 +5145,7 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -5159,7 +5165,7 @@
         <v>9</v>
       </c>
       <c r="F115" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -5179,7 +5185,7 @@
         <v>8</v>
       </c>
       <c r="F116" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -5199,7 +5205,7 @@
         <v>5</v>
       </c>
       <c r="F117" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -5219,7 +5225,7 @@
         <v>6</v>
       </c>
       <c r="F118" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -5239,7 +5245,7 @@
         <v>7</v>
       </c>
       <c r="F119" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -5259,7 +5265,7 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -5279,7 +5285,7 @@
         <v>9</v>
       </c>
       <c r="F121" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -5299,7 +5305,7 @@
         <v>8</v>
       </c>
       <c r="F122" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -5319,7 +5325,7 @@
         <v>5</v>
       </c>
       <c r="F123" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -5339,7 +5345,7 @@
         <v>6</v>
       </c>
       <c r="F124" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -5359,7 +5365,7 @@
         <v>7</v>
       </c>
       <c r="F125" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5379,7 +5385,7 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -5399,7 +5405,7 @@
         <v>9</v>
       </c>
       <c r="F127" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5419,7 +5425,7 @@
         <v>8</v>
       </c>
       <c r="F128" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5439,7 +5445,7 @@
         <v>5</v>
       </c>
       <c r="F129" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5459,7 +5465,7 @@
         <v>6</v>
       </c>
       <c r="F130" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5479,7 +5485,7 @@
         <v>7</v>
       </c>
       <c r="F131" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5499,7 +5505,7 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5519,7 +5525,7 @@
         <v>9</v>
       </c>
       <c r="F133" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5539,7 +5545,7 @@
         <v>8</v>
       </c>
       <c r="F134" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5559,7 +5565,7 @@
         <v>5</v>
       </c>
       <c r="F135" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5579,7 +5585,7 @@
         <v>6</v>
       </c>
       <c r="F136" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5599,7 +5605,7 @@
         <v>7</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5619,7 +5625,7 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5639,7 +5645,7 @@
         <v>9</v>
       </c>
       <c r="F139" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -6074,7 +6080,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6107,6 +6113,581 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:7">
+      <c r="A2">
+        <v>19330051920125</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>19330051920125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G3">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>19330051920131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>19330051920131</v>
+      </c>
+      <c r="B5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D5" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>19330051920133</v>
+      </c>
+      <c r="B6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>19330051920133</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>19330051920139</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>19330051920139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>19330051920141</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>19330051920141</v>
+      </c>
+      <c r="B11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>44</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>19330051920126</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>19330051920127</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>44</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>19330051920128</v>
+      </c>
+      <c r="B14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>19330051920129</v>
+      </c>
+      <c r="B15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>19330051920380</v>
+      </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>44</v>
+      </c>
+      <c r="G16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17">
+        <v>19330051920132</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18">
+        <v>19330051920134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D18" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>44</v>
+      </c>
+      <c r="G18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19">
+        <v>19330051920135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" t="s">
+        <v>81</v>
+      </c>
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20">
+        <v>19330051920002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21">
+        <v>19330051920136</v>
+      </c>
+      <c r="B21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22">
+        <v>19330051920137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>103</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23">
+        <v>19330051920143</v>
+      </c>
+      <c r="B23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C23" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" t="s">
+        <v>106</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>44</v>
+      </c>
+      <c r="G23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24">
+        <v>19330051920144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>44</v>
+      </c>
+      <c r="G24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25">
+        <v>19330051920147</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>71</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>44</v>
+      </c>
+      <c r="G25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26">
+        <v>19330051920431</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/grupos/5ARHM - Estadisticos 20211.xlsx
+++ b/grupos/5ARHM - Estadisticos 20211.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="112">
   <si>
     <t>Materia</t>
   </si>
@@ -2388,7 +2388,7 @@
         <v>-1</v>
       </c>
       <c r="D24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="E24">
         <v>-1</v>
@@ -2442,7 +2442,7 @@
         <v>-1</v>
       </c>
       <c r="V24">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="W24">
         <v>-1</v>
@@ -2833,25 +2833,25 @@
         <v>23</v>
       </c>
       <c r="D7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>95.65000000000001</v>
+        <v>100</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>4.35</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2861,7 +2861,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3089,26 +3089,6 @@
       </c>
       <c r="F11" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12">
-        <v>19330051920145</v>
-      </c>
-      <c r="B12" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>64</v>
-      </c>
-      <c r="D12" t="s">
-        <v>71</v>
-      </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -3159,7 +3139,7 @@
         <v>71</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5">
